--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3099.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3099.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.636260700779793</v>
+        <v>1.239943265914917</v>
       </c>
       <c r="B1">
-        <v>2.411563638645221</v>
+        <v>2.359054327011108</v>
       </c>
       <c r="C1">
-        <v>2.66685425296933</v>
+        <v>3.775464534759521</v>
       </c>
       <c r="D1">
-        <v>3.180085906105033</v>
+        <v>3.280536651611328</v>
       </c>
       <c r="E1">
-        <v>3.439303732286518</v>
+        <v>1.258055090904236</v>
       </c>
     </row>
   </sheetData>
